--- a/scenario/timeline.xlsx
+++ b/scenario/timeline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">Time</t>
   </si>
@@ -46,13 +46,28 @@
     <t xml:space="preserve">Main Exp #1</t>
   </si>
   <si>
-    <t xml:space="preserve">Baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Exp #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Connection</t>
+    <t xml:space="preserve">map change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weather change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run auto driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driving sound play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qr tag message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show qr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move event page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndrt</t>
   </si>
 </sst>
 </file>
@@ -128,13 +143,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -154,13 +173,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O78" activeCellId="0" sqref="O78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.71"/>
@@ -428,7 +447,7 @@
         <f aca="false">B41+90</f>
         <v>251</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -470,53 +489,356 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="n">
-        <f aca="false">B46+130</f>
-        <v>536</v>
+        <f aca="false">B46+6</f>
+        <v>412</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B48" s="1" t="n">
-        <f aca="false">B47+30</f>
-        <v>566</v>
+        <f aca="false">B47+28</f>
+        <v>440</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="n">
+        <f aca="false">B48+2.7</f>
+        <v>442.7</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="n">
+        <f aca="false">B49+2.7</f>
+        <v>445.4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="n">
+        <f aca="false">B50+2.7</f>
+        <v>448.1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="n">
+        <f aca="false">B51+2.7</f>
+        <v>450.8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="n">
+        <f aca="false">B52+2.7</f>
+        <v>453.5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="n">
+        <f aca="false">B53+2.7</f>
+        <v>456.2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="n">
+        <f aca="false">B54+2.7</f>
+        <v>458.9</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="n">
+        <f aca="false">B55+2.7</f>
+        <v>461.6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="n">
+        <f aca="false">B56+2.7</f>
+        <v>464.3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="n">
+        <f aca="false">B57+2.7</f>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="n">
+        <f aca="false">B58+2.7</f>
+        <v>469.7</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="n">
+        <f aca="false">B59+2.7</f>
+        <v>472.4</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="n">
+        <f aca="false">B60+2.7</f>
+        <v>475.1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="n">
+        <f aca="false">B61+2.7</f>
+        <v>477.8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="n">
+        <f aca="false">B62+2.7</f>
+        <v>480.5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="n">
+        <f aca="false">B63+2.7</f>
+        <v>483.2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="n">
+        <f aca="false">B64+2.7</f>
+        <v>485.9</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="n">
+        <f aca="false">B65+2.7</f>
+        <v>488.6</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="n">
+        <f aca="false">B66+2.7</f>
+        <v>491.3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="n">
+        <f aca="false">B67+2.7</f>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="n">
+        <f aca="false">B68+2.7</f>
+        <v>496.7</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="n">
+        <f aca="false">B69+2.7</f>
+        <v>499.4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="n">
+        <f aca="false">B70+2.7</f>
+        <v>502.1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="n">
+        <f aca="false">B71+2.7</f>
+        <v>504.8</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1" t="n">
+        <f aca="false">B72+2.7</f>
+        <v>507.5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1" t="n">
+        <f aca="false">B73+2.7</f>
+        <v>510.2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="1" t="n">
-        <f aca="false">B48+30</f>
-        <v>596</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="B75" s="1" t="n">
+        <f aca="false">B74+0.8</f>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="1" t="n">
-        <f aca="false">B49+130</f>
-        <v>726</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="B76" s="1" t="n">
+        <f aca="false">B75+10</f>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="1" t="n">
-        <f aca="false">B50+30</f>
-        <v>756</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <f aca="false">B51+30</f>
-        <v>786</v>
+      <c r="B77" s="1" t="n">
+        <f aca="false">B76+20</f>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <f aca="false">B77+10</f>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <f aca="false">B78+4</f>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <f aca="false">B79+10</f>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <f aca="false">B80+15</f>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <f aca="false">B81+2.7</f>
+        <v>582.7</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="n">
+        <f aca="false">B82+2.7</f>
+        <v>585.4</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="n">
+        <f aca="false">B83+2.7</f>
+        <v>588.1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="n">
+        <f aca="false">B84+2.7</f>
+        <v>590.8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="n">
+        <f aca="false">B85+2.7</f>
+        <v>593.5</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="n">
+        <f aca="false">B86+2.7</f>
+        <v>596.2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="n">
+        <f aca="false">B87+2.7</f>
+        <v>598.9</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="n">
+        <f aca="false">B88+2.7</f>
+        <v>601.6</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1" t="n">
+        <f aca="false">B89+2.7</f>
+        <v>604.3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1" t="n">
+        <f aca="false">B90+2.7</f>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="n">
+        <f aca="false">B91+2.7</f>
+        <v>609.7</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1" t="n">
+        <f aca="false">B92+2.7</f>
+        <v>612.4</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="n">
+        <f aca="false">B93+2.7</f>
+        <v>615.1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1" t="n">
+        <f aca="false">B94+2.7</f>
+        <v>617.8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="n">
+        <f aca="false">B95+2.7</f>
+        <v>620.5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1" t="n">
+        <f aca="false">B96+2.7</f>
+        <v>623.2</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="1" t="n">
+        <f aca="false">B97+2.7</f>
+        <v>625.900000000001</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1" t="n">
+        <f aca="false">B98+2.7</f>
+        <v>628.600000000001</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1" t="n">
+        <f aca="false">B99+2.7</f>
+        <v>631.300000000001</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="n">
+        <f aca="false">B100+2.7</f>
+        <v>634.000000000001</v>
       </c>
     </row>
   </sheetData>
